--- a/dps_dashboard/data/2021/school_stats_data/ES_poc_per_school_21.xlsx
+++ b/dps_dashboard/data/2021/school_stats_data/ES_poc_per_school_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melaniemoseley/CodingWorkspace/visualizing_DPS/dps_dashboard/data/2021/school_stats_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4022E628-8794-0045-B20F-4BACC9E8C909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A09954F-F69D-FA44-B3D1-E001BF0E7F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{8A77730F-63B3-7A4A-B171-15DB83AB20AC}"/>
   </bookViews>
